--- a/data/trans_orig/P1420-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>11408</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6301</v>
+        <v>6006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20466</v>
+        <v>19646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01170431926594227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006464974660856113</v>
+        <v>0.006161751304079114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0209984938088477</v>
+        <v>0.0201574035484012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -763,19 +763,19 @@
         <v>29754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20411</v>
+        <v>20572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42217</v>
+        <v>40224</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02224103230232984</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01525718898078899</v>
+        <v>0.01537728795978086</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03155737969696035</v>
+        <v>0.03006771579616779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -784,19 +784,19 @@
         <v>41162</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29449</v>
+        <v>29767</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55193</v>
+        <v>55321</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01780003678137267</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01273490166048965</v>
+        <v>0.01287240953904381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02386803312612221</v>
+        <v>0.02392300953840386</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>963235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>954177</v>
+        <v>954997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>968342</v>
+        <v>968637</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9882956807340577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9790015061911519</v>
+        <v>0.9798425964515989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9935350253391438</v>
+        <v>0.9938382486959209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1218</v>
@@ -834,19 +834,19 @@
         <v>1308043</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1295580</v>
+        <v>1297573</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1317386</v>
+        <v>1317225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9777589676976701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9684426203030396</v>
+        <v>0.9699322842038323</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9847428110192109</v>
+        <v>0.9846227120402191</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2115</v>
@@ -855,19 +855,19 @@
         <v>2271278</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2257247</v>
+        <v>2257119</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2282991</v>
+        <v>2282673</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9821999632186273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9761319668738777</v>
+        <v>0.9760769904615961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9872650983395103</v>
+        <v>0.9871275904609561</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>12555</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7171</v>
+        <v>7438</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19984</v>
+        <v>22180</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006392802061471992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003651099021445168</v>
+        <v>0.003787144592301066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01017546519093053</v>
+        <v>0.01129344027245616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -980,19 +980,19 @@
         <v>21027</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12993</v>
+        <v>12363</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33089</v>
+        <v>32515</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01198388981828136</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00740534903824549</v>
+        <v>0.007046348056193939</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01885851524232235</v>
+        <v>0.01853118741353962</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -1001,19 +1001,19 @@
         <v>33582</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23099</v>
+        <v>22441</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45000</v>
+        <v>47190</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00903094850305762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006211854118577464</v>
+        <v>0.006034751045043889</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01210139539775342</v>
+        <v>0.01269041249016671</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1951402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1943973</v>
+        <v>1941777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1956786</v>
+        <v>1956519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.993607197938528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9898245348090694</v>
+        <v>0.9887065597275438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9963489009785549</v>
+        <v>0.9962128554076989</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1614</v>
@@ -1051,19 +1051,19 @@
         <v>1733565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1721503</v>
+        <v>1722077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1741599</v>
+        <v>1742229</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9880161101817186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9811414847576776</v>
+        <v>0.9814688125864605</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9925946509617544</v>
+        <v>0.9929536519438061</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3458</v>
@@ -1072,19 +1072,19 @@
         <v>3684967</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3673549</v>
+        <v>3671359</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3695450</v>
+        <v>3696108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9909690514969424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9878986046022464</v>
+        <v>0.9873095875098331</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9937881458814225</v>
+        <v>0.993965248954956</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>3044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8177</v>
+        <v>8728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006326596586695115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001816776600114248</v>
+        <v>0.001829749735350382</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01699276545733978</v>
+        <v>0.01813854917884986</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1197,19 +1197,19 @@
         <v>5000</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1931</v>
+        <v>1920</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10835</v>
+        <v>10759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0109017960076881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004210616280958169</v>
+        <v>0.004186877720234929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0236247189061061</v>
+        <v>0.02345808160998669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1218,19 +1218,19 @@
         <v>8044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3864</v>
+        <v>3841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15093</v>
+        <v>15185</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008559306441159074</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004111369820960655</v>
+        <v>0.00408708604025096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01605932207111682</v>
+        <v>0.0161577723191891</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>478137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473004</v>
+        <v>472453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>480307</v>
+        <v>480301</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9936734034133049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9830072345426603</v>
+        <v>0.9818614508211502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981832233998857</v>
+        <v>0.9981702502646496</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>407</v>
@@ -1268,19 +1268,19 @@
         <v>453631</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>447796</v>
+        <v>447872</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456700</v>
+        <v>456711</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9890982039923119</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9763752810938943</v>
+        <v>0.9765419183900134</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9957893837190418</v>
+        <v>0.995813122279765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>842</v>
@@ -1289,19 +1289,19 @@
         <v>931769</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>924720</v>
+        <v>924628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>935949</v>
+        <v>935972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9914406935588409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9839406779288835</v>
+        <v>0.9838422276808109</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9958886301790394</v>
+        <v>0.995912913959749</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>27007</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17684</v>
+        <v>18091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38567</v>
+        <v>38733</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007897277053309367</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00517101384596922</v>
+        <v>0.005290149573811001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01127767010293607</v>
+        <v>0.01132601549901166</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -1414,19 +1414,19 @@
         <v>55781</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42031</v>
+        <v>41627</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72187</v>
+        <v>71887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01570836595763828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01183623176207207</v>
+        <v>0.01172247202462723</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02032841049261771</v>
+        <v>0.02024414707709862</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -1435,19 +1435,19 @@
         <v>82788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66591</v>
+        <v>67153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101595</v>
+        <v>100867</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01187635035708387</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009552833884444183</v>
+        <v>0.009633440138085855</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01457430903030812</v>
+        <v>0.0144699792262553</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3392775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3381215</v>
+        <v>3381049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3402098</v>
+        <v>3401691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921027229466907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.988722329897064</v>
+        <v>0.9886739845009883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9948289861540308</v>
+        <v>0.994709850426189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3239</v>
@@ -1485,19 +1485,19 @@
         <v>3495239</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3478833</v>
+        <v>3479133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3508989</v>
+        <v>3509393</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9842916340423618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.979671589507383</v>
+        <v>0.9797558529229015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9881637682379281</v>
+        <v>0.9882775279753732</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6415</v>
@@ -1506,19 +1506,19 @@
         <v>6888013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6869206</v>
+        <v>6869934</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6904210</v>
+        <v>6903648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9881236496429161</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9854256909696919</v>
+        <v>0.9855300207737449</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9904471661155558</v>
+        <v>0.9903665598619141</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>10522</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5283</v>
+        <v>5367</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19224</v>
+        <v>18874</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01394912241702385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007002820478182199</v>
+        <v>0.007114756799174884</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02548434131674108</v>
+        <v>0.0250199521048217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -1870,19 +1870,19 @@
         <v>18626</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10953</v>
+        <v>10738</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29805</v>
+        <v>28234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01872590203089682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01101187577708363</v>
+        <v>0.01079559730701492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02996510533367994</v>
+        <v>0.02838544942713927</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -1891,19 +1891,19 @@
         <v>29148</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19372</v>
+        <v>19353</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42118</v>
+        <v>41657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01666567676487657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01107598227085885</v>
+        <v>0.01106492181916177</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0240811932960288</v>
+        <v>0.02381743021436869</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>743825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>735123</v>
+        <v>735473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>749064</v>
+        <v>748980</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9860508775829762</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.974515658683259</v>
+        <v>0.9749800478951783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.992997179521818</v>
+        <v>0.9928852432008252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>876</v>
@@ -1941,19 +1941,19 @@
         <v>976034</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>964855</v>
+        <v>966426</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>983707</v>
+        <v>983922</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9812740979691031</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9700348946663201</v>
+        <v>0.9716145505728607</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9889881242229164</v>
+        <v>0.9892044026929852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1627</v>
@@ -1962,19 +1962,19 @@
         <v>1719859</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1706889</v>
+        <v>1707350</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1729635</v>
+        <v>1729654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9833343232351234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9759188067039711</v>
+        <v>0.9761825697856312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9889240177291411</v>
+        <v>0.988935078180838</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>14938</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8567</v>
+        <v>7705</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25843</v>
+        <v>23947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007194097655328659</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004125846536218459</v>
+        <v>0.003710990000788561</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01244622970596195</v>
+        <v>0.01153285944183207</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -2087,19 +2087,19 @@
         <v>23392</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15295</v>
+        <v>14785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36534</v>
+        <v>35089</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01176475578690234</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007692546598657844</v>
+        <v>0.00743605795551963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01837459587151885</v>
+        <v>0.01764781689744994</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -2108,19 +2108,19 @@
         <v>38330</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27497</v>
+        <v>27296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54696</v>
+        <v>53217</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009429901854538618</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006764922143654886</v>
+        <v>0.006715437465913901</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01345629126365577</v>
+        <v>0.01309249357145226</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2061447</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2050542</v>
+        <v>2052438</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2067818</v>
+        <v>2068680</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9928059023446714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.987553770294039</v>
+        <v>0.988467140558168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958741534637817</v>
+        <v>0.9962890099992116</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1887</v>
@@ -2158,19 +2158,19 @@
         <v>1964908</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1951766</v>
+        <v>1953211</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1973005</v>
+        <v>1973515</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9882352442130977</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9816254041284811</v>
+        <v>0.9823521831025503</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9923074534013421</v>
+        <v>0.9925639420444805</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3825</v>
@@ -2179,19 +2179,19 @@
         <v>4026355</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4009989</v>
+        <v>4011468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4037188</v>
+        <v>4037389</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9905700981454614</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9865437087363442</v>
+        <v>0.9869075064285481</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9932350778563451</v>
+        <v>0.9932845625340863</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>8073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2596</v>
+        <v>2841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18311</v>
+        <v>19035</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01476222337430721</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004746089210273463</v>
+        <v>0.00519533322988188</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03348198966743503</v>
+        <v>0.03480646281623775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2304,19 +2304,19 @@
         <v>3932</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10901</v>
+        <v>11981</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007160266429155914</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001886996947781009</v>
+        <v>0.001887947631989997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0198519401096374</v>
+        <v>0.02181690982940068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -2325,19 +2325,19 @@
         <v>12005</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5344</v>
+        <v>6076</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23231</v>
+        <v>26442</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01095342761879194</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004875625089861452</v>
+        <v>0.005543846181474018</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02119569905542456</v>
+        <v>0.02412505559725689</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>538813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>528575</v>
+        <v>527851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544290</v>
+        <v>544045</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9852377766256928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9665180103325648</v>
+        <v>0.9651935371837623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9952539107897264</v>
+        <v>0.9948046667701181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>523</v>
@@ -2375,19 +2375,19 @@
         <v>545208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>538239</v>
+        <v>537159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548104</v>
+        <v>548103</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9928397335708441</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9801480598903626</v>
+        <v>0.9781830901705993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9981130030522191</v>
+        <v>0.99811205236801</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1019</v>
@@ -2396,19 +2396,19 @@
         <v>1084022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1072796</v>
+        <v>1069585</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1090683</v>
+        <v>1089951</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9890465723812081</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9788043009445757</v>
+        <v>0.9758749444027432</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9951243749101387</v>
+        <v>0.994456153818526</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>33533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23003</v>
+        <v>22545</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47933</v>
+        <v>46988</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009928135448468781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006810398575374386</v>
+        <v>0.006674804012795183</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01419123689581366</v>
+        <v>0.01391149423157775</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -2521,19 +2521,19 @@
         <v>45950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33380</v>
+        <v>32778</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62089</v>
+        <v>63085</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01300918920501585</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009450515017638543</v>
+        <v>0.009280085338017928</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01757848315044927</v>
+        <v>0.01786035088758704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -2542,19 +2542,19 @@
         <v>79483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61397</v>
+        <v>61452</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101450</v>
+        <v>100073</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01150310434720227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008885589541179968</v>
+        <v>0.00889357750009546</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01468217670962175</v>
+        <v>0.01448287214678771</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3344085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3329685</v>
+        <v>3330630</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3354615</v>
+        <v>3355073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9900718645515312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9858087631041863</v>
+        <v>0.9860885057684222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9931896014246255</v>
+        <v>0.9933251959872047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3286</v>
@@ -2592,19 +2592,19 @@
         <v>3486150</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3470011</v>
+        <v>3469015</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3498720</v>
+        <v>3499322</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9869908107949842</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9824215168495508</v>
+        <v>0.982139649112413</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9905494849823615</v>
+        <v>0.9907199146619822</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6471</v>
@@ -2613,19 +2613,19 @@
         <v>6830235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6808268</v>
+        <v>6809645</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6848321</v>
+        <v>6848266</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9884968956527977</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9853178232903784</v>
+        <v>0.9855171278532124</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.99111441045882</v>
+        <v>0.9911064224999047</v>
       </c>
     </row>
     <row r="15">
